--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="548">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1215,9 +1215,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.26 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1776,7 +1773,7 @@
         <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1795,7 +1792,7 @@
         <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1804,7 +1801,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1821,7 +1818,7 @@
         <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1830,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1847,7 +1844,7 @@
         <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1856,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1873,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1882,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1895,7 +1892,7 @@
         <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1904,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1921,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1930,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1943,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1952,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1965,7 +1962,7 @@
         <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1974,7 +1971,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1991,7 +1988,7 @@
         <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2000,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2017,7 +2014,7 @@
         <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2026,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2043,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2052,7 +2049,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2065,7 +2062,7 @@
         <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -2074,7 +2071,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2091,7 +2088,7 @@
         <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2100,7 +2097,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2117,7 +2114,7 @@
         <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2126,7 +2123,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2143,7 +2140,7 @@
         <v>398</v>
       </c>
       <c r="C18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2152,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2169,7 +2166,7 @@
         <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2178,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2195,7 +2192,7 @@
         <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2204,7 +2201,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2221,7 +2218,7 @@
         <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2230,7 +2227,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2244,10 +2241,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2256,7 +2253,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2273,7 +2270,7 @@
         <v>398</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2282,7 +2279,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2299,7 +2296,7 @@
         <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -2308,7 +2305,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2325,7 +2322,7 @@
         <v>399</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2334,7 +2331,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2351,7 +2348,7 @@
         <v>398</v>
       </c>
       <c r="C26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2360,7 +2357,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2377,7 +2374,7 @@
         <v>398</v>
       </c>
       <c r="C27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2386,7 +2383,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2403,7 +2400,7 @@
         <v>398</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2412,7 +2409,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2429,7 +2426,7 @@
         <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2438,7 +2435,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2455,7 +2452,7 @@
         <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2464,7 +2461,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2481,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2490,7 +2487,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2503,7 +2500,7 @@
         <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2512,7 +2509,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2529,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2538,7 +2535,7 @@
         <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2551,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2560,7 +2557,7 @@
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2573,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2582,7 +2579,7 @@
         <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2595,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2604,7 +2601,7 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2617,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -2626,7 +2623,7 @@
         <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2639,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2648,7 +2645,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2661,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2670,7 +2667,7 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2683,7 +2680,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2692,7 +2689,7 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2705,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2714,7 +2711,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2727,7 +2724,7 @@
         <v>398</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -2736,7 +2733,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2753,7 +2750,7 @@
         <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
@@ -2762,7 +2759,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2779,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2788,7 +2785,7 @@
         <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2801,7 +2798,7 @@
         <v>398</v>
       </c>
       <c r="C45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2810,7 +2807,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2827,7 +2824,7 @@
         <v>398</v>
       </c>
       <c r="C46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2836,7 +2833,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2853,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2862,7 +2859,7 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -2875,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s">
         <v>201</v>
@@ -2884,7 +2881,7 @@
         <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2897,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2906,7 +2903,7 @@
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2919,7 +2916,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2928,7 +2925,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -2941,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -2950,7 +2947,7 @@
         <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -2963,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -2972,7 +2969,7 @@
         <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -2985,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -2994,7 +2991,7 @@
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3007,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3016,7 +3013,7 @@
         <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3029,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3038,7 +3035,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3051,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3060,7 +3057,7 @@
         <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3073,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3082,7 +3079,7 @@
         <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3095,7 +3092,7 @@
         <v>399</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3104,7 +3101,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3121,7 +3118,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3130,7 +3127,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3143,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3152,7 +3149,7 @@
         <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3165,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3174,7 +3171,7 @@
         <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3187,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3196,7 +3193,7 @@
         <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3209,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3218,7 +3215,7 @@
         <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3231,7 +3228,7 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3240,7 +3237,7 @@
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3253,7 +3250,7 @@
         <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3262,7 +3259,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3279,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3288,7 +3285,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3301,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3310,7 +3307,7 @@
         <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -3323,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3332,7 +3329,7 @@
         <v>266</v>
       </c>
       <c r="F68" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -3345,7 +3342,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -3354,7 +3351,7 @@
         <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3367,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D70" t="s">
         <v>271</v>
@@ -3376,7 +3373,7 @@
         <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3389,7 +3386,7 @@
         <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3398,7 +3395,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3415,7 +3412,7 @@
         <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3424,7 +3421,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3441,7 +3438,7 @@
         <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3450,7 +3447,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3467,7 +3464,7 @@
         <v>398</v>
       </c>
       <c r="C74" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3476,7 +3473,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3493,7 +3490,7 @@
         <v>398</v>
       </c>
       <c r="C75" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3502,7 +3499,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3519,7 +3516,7 @@
         <v>399</v>
       </c>
       <c r="C76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3528,7 +3525,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3545,7 +3542,7 @@
         <v>398</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3554,7 +3551,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3571,7 +3568,7 @@
         <v>398</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3580,7 +3577,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3597,7 +3594,7 @@
         <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3606,7 +3603,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3623,7 +3620,7 @@
         <v>398</v>
       </c>
       <c r="C80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3632,7 +3629,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3649,7 +3646,7 @@
         <v>398</v>
       </c>
       <c r="C81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3658,7 +3655,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3675,7 +3672,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3684,7 +3681,7 @@
         <v>330</v>
       </c>
       <c r="F82" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3697,7 +3694,7 @@
         <v>399</v>
       </c>
       <c r="C83" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3706,7 +3703,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3723,7 +3720,7 @@
         <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3732,7 +3729,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3749,7 +3746,7 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D85" t="s">
         <v>342</v>
@@ -3758,7 +3755,7 @@
         <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3771,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3780,7 +3777,7 @@
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3793,7 +3790,7 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3802,7 +3799,7 @@
         <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3815,7 +3812,7 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3824,7 +3821,7 @@
         <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3837,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D89" t="s">
         <v>242</v>
@@ -3846,7 +3843,7 @@
         <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3859,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3868,7 +3865,7 @@
         <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3881,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D91" t="s">
         <v>359</v>
@@ -3890,7 +3887,7 @@
         <v>360</v>
       </c>
       <c r="F91" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3903,7 +3900,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -3912,7 +3909,7 @@
         <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3925,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -3934,7 +3931,7 @@
         <v>366</v>
       </c>
       <c r="F93" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3947,7 +3944,7 @@
         <v>399</v>
       </c>
       <c r="C94" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -3956,7 +3953,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -3973,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -3982,7 +3979,7 @@
         <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -3995,7 +3992,7 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -4004,7 +4001,7 @@
         <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4017,7 +4014,7 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -4026,7 +4023,7 @@
         <v>380</v>
       </c>
       <c r="F97" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4039,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D98" t="s">
         <v>382</v>
@@ -4048,7 +4045,7 @@
         <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4061,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -4070,7 +4067,7 @@
         <v>386</v>
       </c>
       <c r="F99" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4083,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -4092,7 +4089,7 @@
         <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4105,7 +4102,7 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D101" t="s">
         <v>391</v>
@@ -4114,7 +4111,7 @@
         <v>392</v>
       </c>
       <c r="F101" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4124,10 +4121,10 @@
         <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C102" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -4136,7 +4133,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1177 +44,1180 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.27 fix 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1773,7 +1776,7 @@
         <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1792,7 +1795,7 @@
         <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1801,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1818,7 +1821,7 @@
         <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1827,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1844,7 +1847,7 @@
         <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1853,7 +1856,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1867,10 +1870,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1879,7 +1882,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1892,7 +1895,7 @@
         <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1901,7 +1904,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1915,10 +1918,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1927,7 +1930,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1937,10 +1940,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1949,7 +1952,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1962,7 +1965,7 @@
         <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1971,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1988,7 +1991,7 @@
         <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1997,7 +2000,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2014,7 +2017,7 @@
         <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2023,7 +2026,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2037,10 +2040,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2049,7 +2052,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2062,7 +2065,7 @@
         <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -2071,7 +2074,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2088,7 +2091,7 @@
         <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2097,7 +2100,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2114,7 +2117,7 @@
         <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2123,7 +2126,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2140,7 +2143,7 @@
         <v>398</v>
       </c>
       <c r="C18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2149,7 +2152,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2166,7 +2169,7 @@
         <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2175,7 +2178,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2192,7 +2195,7 @@
         <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2201,7 +2204,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2218,7 +2221,7 @@
         <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2227,7 +2230,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2241,10 +2244,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2253,7 +2256,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2270,7 +2273,7 @@
         <v>398</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2279,7 +2282,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2296,7 +2299,7 @@
         <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -2305,7 +2308,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2322,7 +2325,7 @@
         <v>399</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2331,7 +2334,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2348,7 +2351,7 @@
         <v>398</v>
       </c>
       <c r="C26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2357,7 +2360,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2374,7 +2377,7 @@
         <v>398</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2383,7 +2386,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2400,7 +2403,7 @@
         <v>398</v>
       </c>
       <c r="C28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2409,7 +2412,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2426,7 +2429,7 @@
         <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2435,7 +2438,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2452,7 +2455,7 @@
         <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2461,7 +2464,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2475,10 +2478,10 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2487,7 +2490,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2500,7 +2503,7 @@
         <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2509,7 +2512,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2523,10 +2526,10 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2535,7 +2538,7 @@
         <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2545,10 +2548,10 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2557,7 +2560,7 @@
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2567,10 +2570,10 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2579,7 +2582,7 @@
         <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2589,10 +2592,10 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2601,7 +2604,7 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2611,10 +2614,10 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -2623,7 +2626,7 @@
         <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2633,10 +2636,10 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2645,7 +2648,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2655,10 +2658,10 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2667,7 +2670,7 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2677,10 +2680,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2689,7 +2692,7 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2699,10 +2702,10 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2711,7 +2714,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2724,7 +2727,7 @@
         <v>398</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -2733,7 +2736,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2750,7 +2753,7 @@
         <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
@@ -2759,7 +2762,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2773,10 +2776,10 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2785,7 +2788,7 @@
         <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2798,7 +2801,7 @@
         <v>398</v>
       </c>
       <c r="C45" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2807,7 +2810,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2824,7 +2827,7 @@
         <v>398</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2833,7 +2836,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2847,10 +2850,10 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2859,7 +2862,7 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -2869,10 +2872,10 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D48" t="s">
         <v>201</v>
@@ -2881,7 +2884,7 @@
         <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2891,10 +2894,10 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2903,7 +2906,7 @@
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2913,10 +2916,10 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2925,7 +2928,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -2935,10 +2938,10 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -2947,7 +2950,7 @@
         <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -2957,10 +2960,10 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -2969,7 +2972,7 @@
         <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -2979,10 +2982,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -2991,7 +2994,7 @@
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3001,10 +3004,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3013,7 +3016,7 @@
         <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3023,10 +3026,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3035,7 +3038,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3045,10 +3048,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3057,7 +3060,7 @@
         <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3067,10 +3070,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3079,7 +3082,7 @@
         <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3092,7 +3095,7 @@
         <v>399</v>
       </c>
       <c r="C58" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3101,7 +3104,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3115,10 +3118,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3127,7 +3130,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3137,10 +3140,10 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3149,7 +3152,7 @@
         <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3159,10 +3162,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3171,7 +3174,7 @@
         <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3181,10 +3184,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3193,7 +3196,7 @@
         <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3203,10 +3206,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3215,7 +3218,7 @@
         <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3225,10 +3228,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3237,7 +3240,7 @@
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3250,7 +3253,7 @@
         <v>398</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3259,7 +3262,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3273,10 +3276,10 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3285,7 +3288,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3295,10 +3298,10 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3307,7 +3310,7 @@
         <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -3317,10 +3320,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3329,7 +3332,7 @@
         <v>266</v>
       </c>
       <c r="F68" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -3339,10 +3342,10 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -3351,7 +3354,7 @@
         <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3361,10 +3364,10 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C70" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D70" t="s">
         <v>271</v>
@@ -3373,7 +3376,7 @@
         <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3386,7 +3389,7 @@
         <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3395,7 +3398,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3412,7 +3415,7 @@
         <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3421,7 +3424,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3438,7 +3441,7 @@
         <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3447,7 +3450,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3464,7 +3467,7 @@
         <v>398</v>
       </c>
       <c r="C74" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3473,7 +3476,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3490,7 +3493,7 @@
         <v>398</v>
       </c>
       <c r="C75" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3499,7 +3502,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3516,7 +3519,7 @@
         <v>399</v>
       </c>
       <c r="C76" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3525,7 +3528,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3542,7 +3545,7 @@
         <v>398</v>
       </c>
       <c r="C77" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3551,7 +3554,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3568,7 +3571,7 @@
         <v>398</v>
       </c>
       <c r="C78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3577,7 +3580,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3594,7 +3597,7 @@
         <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3603,7 +3606,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3620,7 +3623,7 @@
         <v>398</v>
       </c>
       <c r="C80" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3629,7 +3632,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3646,7 +3649,7 @@
         <v>398</v>
       </c>
       <c r="C81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3655,7 +3658,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3669,10 +3672,10 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3681,7 +3684,7 @@
         <v>330</v>
       </c>
       <c r="F82" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3694,7 +3697,7 @@
         <v>399</v>
       </c>
       <c r="C83" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3703,7 +3706,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3720,7 +3723,7 @@
         <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3729,7 +3732,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3743,10 +3746,10 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D85" t="s">
         <v>342</v>
@@ -3755,7 +3758,7 @@
         <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3765,10 +3768,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3777,7 +3780,7 @@
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3787,10 +3790,10 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3799,7 +3802,7 @@
         <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3809,10 +3812,10 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3821,7 +3824,7 @@
         <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3831,10 +3834,10 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D89" t="s">
         <v>242</v>
@@ -3843,7 +3846,7 @@
         <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3853,10 +3856,10 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3865,7 +3868,7 @@
         <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3875,10 +3878,10 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D91" t="s">
         <v>359</v>
@@ -3887,7 +3890,7 @@
         <v>360</v>
       </c>
       <c r="F91" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3897,10 +3900,10 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -3909,7 +3912,7 @@
         <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3919,10 +3922,10 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -3931,7 +3934,7 @@
         <v>366</v>
       </c>
       <c r="F93" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3944,7 +3947,7 @@
         <v>399</v>
       </c>
       <c r="C94" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -3953,7 +3956,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -3967,10 +3970,10 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C95" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -3979,7 +3982,7 @@
         <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -3989,10 +3992,10 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -4001,7 +4004,7 @@
         <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4011,10 +4014,10 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -4023,7 +4026,7 @@
         <v>380</v>
       </c>
       <c r="F97" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4033,10 +4036,10 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D98" t="s">
         <v>382</v>
@@ -4045,7 +4048,7 @@
         <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4055,10 +4058,10 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -4067,7 +4070,7 @@
         <v>386</v>
       </c>
       <c r="F99" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4077,10 +4080,10 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -4089,7 +4092,7 @@
         <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4099,10 +4102,10 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D101" t="s">
         <v>391</v>
@@ -4111,7 +4114,7 @@
         <v>392</v>
       </c>
       <c r="F101" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4121,10 +4124,10 @@
         <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C102" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -4133,7 +4136,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1180 +44,1180 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
         <v>407</v>
@@ -1918,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>409</v>
@@ -1940,7 +1940,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
         <v>410</v>
@@ -2040,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>414</v>
@@ -2478,7 +2478,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>431</v>
@@ -2526,7 +2526,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
         <v>433</v>
@@ -2548,7 +2548,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
         <v>434</v>
@@ -2570,7 +2570,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
         <v>435</v>
@@ -2592,7 +2592,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
         <v>436</v>
@@ -2614,7 +2614,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
         <v>437</v>
@@ -2636,7 +2636,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
         <v>438</v>
@@ -2658,7 +2658,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
         <v>439</v>
@@ -2680,7 +2680,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
         <v>440</v>
@@ -2702,7 +2702,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
         <v>441</v>
@@ -2776,7 +2776,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
         <v>444</v>
@@ -2850,7 +2850,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
         <v>447</v>
@@ -2872,7 +2872,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s">
         <v>448</v>
@@ -2894,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
         <v>449</v>
@@ -2916,7 +2916,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
         <v>450</v>
@@ -2938,7 +2938,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
         <v>451</v>
@@ -2960,7 +2960,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
         <v>452</v>
@@ -2982,7 +2982,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
         <v>453</v>
@@ -3004,7 +3004,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
         <v>454</v>
@@ -3026,7 +3026,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
         <v>455</v>
@@ -3048,7 +3048,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
         <v>456</v>
@@ -3070,7 +3070,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
         <v>457</v>
@@ -3118,7 +3118,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s">
         <v>459</v>
@@ -3140,7 +3140,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s">
         <v>460</v>
@@ -3162,7 +3162,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
         <v>461</v>
@@ -3184,7 +3184,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
         <v>462</v>
@@ -3206,7 +3206,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
         <v>463</v>
@@ -3228,7 +3228,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s">
         <v>464</v>
@@ -3276,7 +3276,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
         <v>466</v>
@@ -3298,7 +3298,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
         <v>467</v>
@@ -3320,7 +3320,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
         <v>468</v>
@@ -3342,7 +3342,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
         <v>469</v>
@@ -3364,7 +3364,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C70" t="s">
         <v>470</v>
@@ -3672,7 +3672,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
         <v>482</v>
@@ -3746,7 +3746,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
         <v>485</v>
@@ -3768,7 +3768,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
         <v>486</v>
@@ -3790,7 +3790,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
         <v>487</v>
@@ -3812,7 +3812,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
         <v>488</v>
@@ -3834,7 +3834,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
         <v>489</v>
@@ -3856,7 +3856,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
         <v>490</v>
@@ -3878,7 +3878,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
         <v>491</v>
@@ -3900,7 +3900,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
         <v>492</v>
@@ -3922,7 +3922,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s">
         <v>493</v>
@@ -3970,7 +3970,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C95" t="s">
         <v>495</v>
@@ -3992,7 +3992,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
         <v>496</v>
@@ -4014,7 +4014,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>497</v>
@@ -4036,7 +4036,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
         <v>498</v>
@@ -4058,7 +4058,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
@@ -4080,7 +4080,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
         <v>500</v>
@@ -4102,7 +4102,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>501</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1180 +44,1180 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
         <v>407</v>
@@ -1918,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>409</v>
@@ -1940,7 +1940,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
         <v>410</v>
@@ -2040,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>414</v>
@@ -2478,7 +2478,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>431</v>
@@ -2526,7 +2526,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
         <v>433</v>
@@ -2548,7 +2548,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
         <v>434</v>
@@ -2570,7 +2570,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
         <v>435</v>
@@ -2592,7 +2592,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
         <v>436</v>
@@ -2614,7 +2614,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
         <v>437</v>
@@ -2636,7 +2636,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
         <v>438</v>
@@ -2658,7 +2658,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
         <v>439</v>
@@ -2680,7 +2680,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
         <v>440</v>
@@ -2702,7 +2702,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
         <v>441</v>
@@ -2776,7 +2776,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
         <v>444</v>
@@ -2850,7 +2850,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
         <v>447</v>
@@ -2872,7 +2872,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s">
         <v>448</v>
@@ -2894,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
         <v>449</v>
@@ -2916,7 +2916,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
         <v>450</v>
@@ -2938,7 +2938,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
         <v>451</v>
@@ -2960,7 +2960,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
         <v>452</v>
@@ -2982,7 +2982,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
         <v>453</v>
@@ -3004,7 +3004,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
         <v>454</v>
@@ -3026,7 +3026,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
         <v>455</v>
@@ -3048,7 +3048,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
         <v>456</v>
@@ -3070,7 +3070,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
         <v>457</v>
@@ -3118,7 +3118,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s">
         <v>459</v>
@@ -3140,7 +3140,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s">
         <v>460</v>
@@ -3162,7 +3162,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
         <v>461</v>
@@ -3184,7 +3184,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
         <v>462</v>
@@ -3206,7 +3206,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
         <v>463</v>
@@ -3228,7 +3228,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s">
         <v>464</v>
@@ -3276,7 +3276,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
         <v>466</v>
@@ -3298,7 +3298,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
         <v>467</v>
@@ -3320,7 +3320,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
         <v>468</v>
@@ -3342,7 +3342,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
         <v>469</v>
@@ -3364,7 +3364,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C70" t="s">
         <v>470</v>
@@ -3672,7 +3672,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
         <v>482</v>
@@ -3746,7 +3746,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
         <v>485</v>
@@ -3768,7 +3768,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
         <v>486</v>
@@ -3790,7 +3790,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
         <v>487</v>
@@ -3812,7 +3812,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
         <v>488</v>
@@ -3834,7 +3834,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
         <v>489</v>
@@ -3856,7 +3856,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
         <v>490</v>
@@ -3878,7 +3878,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
         <v>491</v>
@@ -3900,7 +3900,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
         <v>492</v>
@@ -3922,7 +3922,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s">
         <v>493</v>
@@ -3970,7 +3970,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C95" t="s">
         <v>495</v>
@@ -3992,7 +3992,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
         <v>496</v>
@@ -4014,7 +4014,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>497</v>
@@ -4036,7 +4036,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
         <v>498</v>
@@ -4058,7 +4058,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
@@ -4080,7 +4080,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
         <v>500</v>
@@ -4102,7 +4102,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>501</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1180 +44,1180 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.75 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
         <v>407</v>
@@ -1918,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>409</v>
@@ -1940,7 +1940,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
         <v>410</v>
@@ -2040,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>414</v>
@@ -2478,7 +2478,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>431</v>
@@ -2526,7 +2526,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
         <v>433</v>
@@ -2548,7 +2548,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
         <v>434</v>
@@ -2570,7 +2570,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
         <v>435</v>
@@ -2592,7 +2592,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
         <v>436</v>
@@ -2614,7 +2614,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
         <v>437</v>
@@ -2636,7 +2636,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
         <v>438</v>
@@ -2658,7 +2658,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
         <v>439</v>
@@ -2680,7 +2680,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
         <v>440</v>
@@ -2702,7 +2702,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
         <v>441</v>
@@ -2776,7 +2776,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
         <v>444</v>
@@ -2850,7 +2850,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
         <v>447</v>
@@ -2872,7 +2872,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s">
         <v>448</v>
@@ -2894,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
         <v>449</v>
@@ -2916,7 +2916,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
         <v>450</v>
@@ -2938,7 +2938,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s">
         <v>451</v>
@@ -2960,7 +2960,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
         <v>452</v>
@@ -2982,7 +2982,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
         <v>453</v>
@@ -3004,7 +3004,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
         <v>454</v>
@@ -3026,7 +3026,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
         <v>455</v>
@@ -3048,7 +3048,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
         <v>456</v>
@@ -3070,7 +3070,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
         <v>457</v>
@@ -3118,7 +3118,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s">
         <v>459</v>
@@ -3140,7 +3140,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s">
         <v>460</v>
@@ -3162,7 +3162,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
         <v>461</v>
@@ -3184,7 +3184,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
         <v>462</v>
@@ -3206,7 +3206,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s">
         <v>463</v>
@@ -3228,7 +3228,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s">
         <v>464</v>
@@ -3276,7 +3276,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s">
         <v>466</v>
@@ -3298,7 +3298,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s">
         <v>467</v>
@@ -3320,7 +3320,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
         <v>468</v>
@@ -3342,7 +3342,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
         <v>469</v>
@@ -3364,7 +3364,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C70" t="s">
         <v>470</v>
@@ -3672,7 +3672,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C82" t="s">
         <v>482</v>
@@ -3746,7 +3746,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
         <v>485</v>
@@ -3768,7 +3768,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C86" t="s">
         <v>486</v>
@@ -3790,7 +3790,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
         <v>487</v>
@@ -3812,7 +3812,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C88" t="s">
         <v>488</v>
@@ -3834,7 +3834,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C89" t="s">
         <v>489</v>
@@ -3856,7 +3856,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C90" t="s">
         <v>490</v>
@@ -3878,7 +3878,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
         <v>491</v>
@@ -3900,7 +3900,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
         <v>492</v>
@@ -3922,7 +3922,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C93" t="s">
         <v>493</v>
@@ -3970,7 +3970,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C95" t="s">
         <v>495</v>
@@ -3992,7 +3992,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
         <v>496</v>
@@ -4014,7 +4014,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C97" t="s">
         <v>497</v>
@@ -4036,7 +4036,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
         <v>498</v>
@@ -4058,7 +4058,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C99" t="s">
         <v>499</v>
@@ -4080,7 +4080,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
         <v>500</v>
@@ -4102,7 +4102,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>501</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="555">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -1209,6 +1209,24 @@
   </si>
   <si>
     <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1773,10 +1791,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1792,10 +1810,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1804,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1818,10 +1836,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1830,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1844,10 +1862,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1856,7 +1874,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1870,10 +1888,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1882,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1892,10 +1910,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1904,7 +1922,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1918,10 +1936,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1930,7 +1948,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1940,10 +1958,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1952,7 +1970,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1962,10 +1980,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1974,7 +1992,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1988,10 +2006,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2000,7 +2018,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2014,10 +2032,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C13" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2026,7 +2044,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2040,10 +2058,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2052,7 +2070,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2062,10 +2080,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -2074,7 +2092,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2088,10 +2106,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2100,7 +2118,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2114,10 +2132,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C17" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2126,7 +2144,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2140,10 +2158,10 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2152,7 +2170,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2166,10 +2184,10 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2178,7 +2196,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2192,10 +2210,10 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2204,7 +2222,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2218,10 +2236,10 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2230,7 +2248,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2244,10 +2262,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2256,7 +2274,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2270,10 +2288,10 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2282,7 +2300,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2296,10 +2314,10 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -2308,7 +2326,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2322,10 +2340,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2334,7 +2352,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2348,10 +2366,10 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2360,7 +2378,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2374,10 +2392,10 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C27" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2386,7 +2404,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2400,10 +2418,10 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2412,7 +2430,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2426,10 +2444,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C29" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2438,7 +2456,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2452,10 +2470,10 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C30" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2464,7 +2482,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2478,10 +2496,10 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C31" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2490,7 +2508,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2500,10 +2518,10 @@
         <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2512,7 +2530,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2526,10 +2544,10 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C33" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2538,7 +2556,7 @@
         <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2548,10 +2566,10 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2560,7 +2578,7 @@
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2570,10 +2588,10 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C35" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2582,7 +2600,7 @@
         <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2592,10 +2610,10 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C36" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2604,7 +2622,7 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2614,10 +2632,10 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C37" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -2626,7 +2644,7 @@
         <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2636,10 +2654,10 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C38" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2648,7 +2666,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2658,10 +2676,10 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C39" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2670,7 +2688,7 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2680,10 +2698,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C40" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2692,7 +2710,7 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2702,10 +2720,10 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2714,7 +2732,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2724,10 +2742,10 @@
         <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -2736,7 +2754,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2750,10 +2768,10 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C43" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
@@ -2762,7 +2780,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2776,10 +2794,10 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C44" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2788,7 +2806,7 @@
         <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2798,10 +2816,10 @@
         <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C45" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2810,7 +2828,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2824,10 +2842,10 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2836,7 +2854,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2850,10 +2868,10 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C47" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2862,7 +2880,7 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -2872,10 +2890,10 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C48" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D48" t="s">
         <v>201</v>
@@ -2884,7 +2902,7 @@
         <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2894,10 +2912,10 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2906,7 +2924,7 @@
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2916,10 +2934,10 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2928,7 +2946,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -2938,10 +2956,10 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C51" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -2950,7 +2968,7 @@
         <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -2960,10 +2978,10 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -2972,7 +2990,7 @@
         <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -2982,10 +3000,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C53" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -2994,7 +3012,7 @@
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3004,10 +3022,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C54" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3016,7 +3034,7 @@
         <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3026,10 +3044,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C55" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3038,7 +3056,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3048,10 +3066,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3060,7 +3078,7 @@
         <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3070,10 +3088,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C57" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3082,7 +3100,7 @@
         <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3092,10 +3110,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3104,7 +3122,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3118,10 +3136,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C59" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3130,7 +3148,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3140,10 +3158,10 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C60" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3152,7 +3170,7 @@
         <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3162,10 +3180,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C61" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3174,7 +3192,7 @@
         <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3184,10 +3202,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C62" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3196,7 +3214,7 @@
         <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3206,10 +3224,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C63" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3218,7 +3236,7 @@
         <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3228,10 +3246,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3240,7 +3258,7 @@
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3250,10 +3268,10 @@
         <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C65" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3262,7 +3280,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3276,10 +3294,10 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3288,7 +3306,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3298,10 +3316,10 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C67" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3310,7 +3328,7 @@
         <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -3320,10 +3338,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3332,7 +3350,7 @@
         <v>266</v>
       </c>
       <c r="F68" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -3342,10 +3360,10 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C69" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -3354,7 +3372,7 @@
         <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3364,10 +3382,10 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C70" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D70" t="s">
         <v>271</v>
@@ -3376,7 +3394,7 @@
         <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3386,10 +3404,10 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C71" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3398,7 +3416,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3412,10 +3430,10 @@
         <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C72" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3424,7 +3442,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3438,10 +3456,10 @@
         <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3450,7 +3468,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3464,10 +3482,10 @@
         <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C74" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3476,7 +3494,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3490,10 +3508,10 @@
         <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C75" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3502,7 +3520,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3516,10 +3534,10 @@
         <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3528,7 +3546,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3542,10 +3560,10 @@
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3554,7 +3572,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3568,10 +3586,10 @@
         <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3580,7 +3598,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3594,10 +3612,10 @@
         <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C79" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3606,7 +3624,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3620,10 +3638,10 @@
         <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C80" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3632,7 +3650,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3646,10 +3664,10 @@
         <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C81" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3658,7 +3676,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3672,10 +3690,10 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C82" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3684,7 +3702,7 @@
         <v>330</v>
       </c>
       <c r="F82" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3694,10 +3712,10 @@
         <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C83" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3706,7 +3724,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3720,10 +3738,10 @@
         <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C84" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3732,7 +3750,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3746,10 +3764,10 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C85" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D85" t="s">
         <v>342</v>
@@ -3758,7 +3776,7 @@
         <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3768,10 +3786,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C86" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3780,7 +3798,7 @@
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3790,10 +3808,10 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3802,7 +3820,7 @@
         <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3812,10 +3830,10 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C88" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3824,7 +3842,7 @@
         <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3834,10 +3852,10 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C89" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D89" t="s">
         <v>242</v>
@@ -3846,7 +3864,7 @@
         <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3856,10 +3874,10 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C90" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3868,7 +3886,7 @@
         <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3878,10 +3896,10 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C91" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D91" t="s">
         <v>359</v>
@@ -3890,7 +3908,7 @@
         <v>360</v>
       </c>
       <c r="F91" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3900,10 +3918,10 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C92" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -3912,7 +3930,7 @@
         <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3922,10 +3940,10 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C93" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -3934,7 +3952,7 @@
         <v>366</v>
       </c>
       <c r="F93" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3944,10 +3962,10 @@
         <v>367</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C94" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -3956,7 +3974,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -3970,10 +3988,10 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C95" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -3982,7 +4000,7 @@
         <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -3992,10 +4010,10 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C96" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -4004,7 +4022,7 @@
         <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4014,10 +4032,10 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C97" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -4026,7 +4044,7 @@
         <v>380</v>
       </c>
       <c r="F97" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4036,10 +4054,10 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C98" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D98" t="s">
         <v>382</v>
@@ -4048,7 +4066,7 @@
         <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4058,10 +4076,10 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C99" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -4070,7 +4088,7 @@
         <v>386</v>
       </c>
       <c r="F99" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4080,10 +4098,10 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C100" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -4092,7 +4110,7 @@
         <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4102,10 +4120,10 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C101" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D101" t="s">
         <v>391</v>
@@ -4114,7 +4132,7 @@
         <v>392</v>
       </c>
       <c r="F101" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4124,10 +4142,10 @@
         <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C102" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -4136,7 +4154,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>
@@ -4144,6 +4162,38 @@
       <c r="H102" t="s">
         <v>397</v>
       </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>398</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>399</v>
+      </c>
+      <c r="E103" t="s">
+        <v>400</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>402</v>
+      </c>
+      <c r="E104" t="s">
+        <v>403</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="563">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1198 +44,1213 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤモンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズクオーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.99 Patch 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1800,10 +1815,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1819,10 +1834,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1831,7 +1846,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1845,10 +1860,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1857,7 +1872,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1871,10 +1886,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1883,7 +1898,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1897,10 +1912,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1909,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1919,10 +1934,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1931,7 +1946,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1945,10 +1960,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1957,7 +1972,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1967,10 +1982,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1979,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1989,10 +2004,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -2001,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -2015,10 +2030,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2027,7 +2042,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2041,10 +2056,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2053,7 +2068,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2067,10 +2082,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2079,7 +2094,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2089,10 +2104,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -2101,7 +2116,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2115,10 +2130,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2127,7 +2142,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2141,10 +2156,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2153,7 +2168,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2167,10 +2182,10 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C18" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2179,7 +2194,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2193,10 +2208,10 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2205,7 +2220,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2219,10 +2234,10 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2231,7 +2246,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2245,10 +2260,10 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2257,7 +2272,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2271,10 +2286,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2283,7 +2298,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2297,10 +2312,10 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C23" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2309,7 +2324,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2323,10 +2338,10 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -2335,7 +2350,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2349,10 +2364,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2361,7 +2376,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2375,10 +2390,10 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2387,7 +2402,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2401,10 +2416,10 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C27" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2413,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2427,10 +2442,10 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2439,7 +2454,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2453,10 +2468,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C29" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2465,7 +2480,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2479,10 +2494,10 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C30" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2491,7 +2506,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2505,10 +2520,10 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2517,7 +2532,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2527,10 +2542,10 @@
         <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C32" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2539,7 +2554,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2553,10 +2568,10 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2565,7 +2580,7 @@
         <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2575,10 +2590,10 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2587,7 +2602,7 @@
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2597,10 +2612,10 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2609,7 +2624,7 @@
         <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2619,10 +2634,10 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2631,7 +2646,7 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2641,10 +2656,10 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -2653,7 +2668,7 @@
         <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2663,10 +2678,10 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C38" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2675,7 +2690,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2685,10 +2700,10 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2697,7 +2712,7 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2707,10 +2722,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2719,7 +2734,7 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2729,10 +2744,10 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2741,7 +2756,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2751,10 +2766,10 @@
         <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C42" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -2763,7 +2778,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2777,10 +2792,10 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C43" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
@@ -2789,7 +2804,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2803,10 +2818,10 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C44" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2815,7 +2830,7 @@
         <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2825,10 +2840,10 @@
         <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C45" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2837,7 +2852,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2851,10 +2866,10 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C46" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2863,7 +2878,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2877,10 +2892,10 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C47" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2889,7 +2904,7 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -2899,10 +2914,10 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C48" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
         <v>201</v>
@@ -2911,7 +2926,7 @@
         <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2921,10 +2936,10 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C49" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2933,7 +2948,7 @@
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2943,10 +2958,10 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2955,7 +2970,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -2965,10 +2980,10 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -2977,7 +2992,7 @@
         <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -2987,10 +3002,10 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -2999,7 +3014,7 @@
         <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -3009,10 +3024,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3021,7 +3036,7 @@
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3031,10 +3046,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3043,7 +3058,7 @@
         <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3053,10 +3068,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3065,7 +3080,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3075,10 +3090,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C56" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3087,7 +3102,7 @@
         <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3097,10 +3112,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3109,7 +3124,7 @@
         <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3119,10 +3134,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3131,7 +3146,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3145,10 +3160,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3157,7 +3172,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3167,10 +3182,10 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C60" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3179,7 +3194,7 @@
         <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3189,10 +3204,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3201,7 +3216,7 @@
         <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3211,10 +3226,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3223,7 +3238,7 @@
         <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3233,10 +3248,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C63" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3245,7 +3260,7 @@
         <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3255,10 +3270,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C64" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3267,7 +3282,7 @@
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3277,10 +3292,10 @@
         <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C65" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3289,7 +3304,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3303,10 +3318,10 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C66" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3315,7 +3330,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3325,10 +3340,10 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3337,7 +3352,7 @@
         <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -3347,10 +3362,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3359,7 +3374,7 @@
         <v>266</v>
       </c>
       <c r="F68" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -3369,10 +3384,10 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -3381,7 +3396,7 @@
         <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3391,10 +3406,10 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C70" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D70" t="s">
         <v>271</v>
@@ -3403,7 +3418,7 @@
         <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3413,10 +3428,10 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3425,7 +3440,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3439,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3451,7 +3466,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3465,10 +3480,10 @@
         <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C73" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3477,7 +3492,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3491,10 +3506,10 @@
         <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C74" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3503,7 +3518,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3517,10 +3532,10 @@
         <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C75" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3529,7 +3544,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3543,10 +3558,10 @@
         <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C76" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3555,7 +3570,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3569,10 +3584,10 @@
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C77" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3581,7 +3596,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3595,10 +3610,10 @@
         <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C78" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3607,7 +3622,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3621,10 +3636,10 @@
         <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C79" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3633,7 +3648,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3647,10 +3662,10 @@
         <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C80" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3659,7 +3674,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3673,10 +3688,10 @@
         <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C81" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3685,7 +3700,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3699,10 +3714,10 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C82" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3711,7 +3726,7 @@
         <v>330</v>
       </c>
       <c r="F82" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3721,10 +3736,10 @@
         <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C83" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3733,7 +3748,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3747,10 +3762,10 @@
         <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C84" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3759,7 +3774,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3773,10 +3788,10 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D85" t="s">
         <v>342</v>
@@ -3785,7 +3800,7 @@
         <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3795,10 +3810,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3807,7 +3822,7 @@
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3817,10 +3832,10 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3829,7 +3844,7 @@
         <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3839,10 +3854,10 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3851,7 +3866,7 @@
         <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3861,10 +3876,10 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C89" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D89" t="s">
         <v>242</v>
@@ -3873,7 +3888,7 @@
         <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3883,10 +3898,10 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3895,7 +3910,7 @@
         <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3905,10 +3920,10 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D91" t="s">
         <v>359</v>
@@ -3917,7 +3932,7 @@
         <v>360</v>
       </c>
       <c r="F91" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3927,10 +3942,10 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -3939,7 +3954,7 @@
         <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3949,10 +3964,10 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -3961,7 +3976,7 @@
         <v>366</v>
       </c>
       <c r="F93" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3971,10 +3986,10 @@
         <v>367</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C94" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -3983,7 +3998,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -3997,10 +4012,10 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -4009,7 +4024,7 @@
         <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -4019,10 +4034,10 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C96" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -4031,7 +4046,7 @@
         <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4041,10 +4056,10 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C97" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -4053,7 +4068,7 @@
         <v>380</v>
       </c>
       <c r="F97" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4063,10 +4078,10 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D98" t="s">
         <v>382</v>
@@ -4075,7 +4090,7 @@
         <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4085,10 +4100,10 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -4097,7 +4112,7 @@
         <v>386</v>
       </c>
       <c r="F99" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4107,10 +4122,10 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C100" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -4119,7 +4134,7 @@
         <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4129,10 +4144,10 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C101" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D101" t="s">
         <v>391</v>
@@ -4141,7 +4156,7 @@
         <v>392</v>
       </c>
       <c r="F101" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4151,10 +4166,10 @@
         <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C102" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -4163,7 +4178,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>
@@ -4177,10 +4192,10 @@
         <v>398</v>
       </c>
       <c r="B103" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C103" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D103" t="s">
         <v>399</v>
@@ -4196,10 +4211,10 @@
         <v>401</v>
       </c>
       <c r="B104" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D104" t="s">
         <v>402</v>
@@ -4209,6 +4224,26 @@
       </c>
       <c r="G104"/>
       <c r="H104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>404</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>405</v>
+      </c>
+      <c r="E105" t="s">
+        <v>406</v>
+      </c>
+      <c r="G105" t="s">
+        <v>407</v>
+      </c>
+      <c r="H105" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="566">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1213 +44,1213 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤモンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズクオーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.109 Patch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤモンド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rose quartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズクオーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lovely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愛らしい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.108</t>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
         <v>420</v>
@@ -1969,7 +1969,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
         <v>422</v>
@@ -1991,7 +1991,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
         <v>423</v>
@@ -2091,7 +2091,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
         <v>427</v>
@@ -2529,7 +2529,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
         <v>444</v>
@@ -2577,7 +2577,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
         <v>446</v>
@@ -2599,7 +2599,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
         <v>447</v>
@@ -2621,7 +2621,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
         <v>448</v>
@@ -2643,7 +2643,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
         <v>449</v>
@@ -2665,7 +2665,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
         <v>450</v>
@@ -2687,7 +2687,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C38" t="s">
         <v>451</v>
@@ -2709,7 +2709,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
         <v>452</v>
@@ -2731,7 +2731,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
         <v>453</v>
@@ -2753,7 +2753,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C41" t="s">
         <v>454</v>
@@ -2827,7 +2827,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C44" t="s">
         <v>457</v>
@@ -2901,7 +2901,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C47" t="s">
         <v>460</v>
@@ -2923,7 +2923,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C48" t="s">
         <v>461</v>
@@ -2945,7 +2945,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C49" t="s">
         <v>462</v>
@@ -2967,7 +2967,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
         <v>463</v>
@@ -2989,7 +2989,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
         <v>464</v>
@@ -3011,7 +3011,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
         <v>465</v>
@@ -3033,7 +3033,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
         <v>466</v>
@@ -3055,7 +3055,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
         <v>467</v>
@@ -3077,7 +3077,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
         <v>468</v>
@@ -3099,7 +3099,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C56" t="s">
         <v>469</v>
@@ -3121,7 +3121,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
         <v>470</v>
@@ -3169,7 +3169,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C59" t="s">
         <v>472</v>
@@ -3191,7 +3191,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C60" t="s">
         <v>473</v>
@@ -3213,7 +3213,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
         <v>474</v>
@@ -3235,7 +3235,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
         <v>475</v>
@@ -3257,7 +3257,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C63" t="s">
         <v>476</v>
@@ -3279,7 +3279,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C64" t="s">
         <v>477</v>
@@ -3327,7 +3327,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C66" t="s">
         <v>479</v>
@@ -3349,7 +3349,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s">
         <v>480</v>
@@ -3371,7 +3371,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
         <v>481</v>
@@ -3393,7 +3393,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s">
         <v>482</v>
@@ -3415,7 +3415,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C70" t="s">
         <v>483</v>
@@ -3723,7 +3723,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C82" t="s">
         <v>495</v>
@@ -3797,7 +3797,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
         <v>498</v>
@@ -3819,7 +3819,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
@@ -3841,7 +3841,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
         <v>500</v>
@@ -3863,7 +3863,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
         <v>501</v>
@@ -3885,7 +3885,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C89" t="s">
         <v>502</v>
@@ -3907,7 +3907,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
         <v>503</v>
@@ -3929,7 +3929,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
         <v>504</v>
@@ -3951,7 +3951,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
         <v>505</v>
@@ -3973,7 +3973,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
         <v>506</v>
@@ -4021,7 +4021,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
         <v>508</v>
@@ -4043,7 +4043,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C96" t="s">
         <v>509</v>
@@ -4065,7 +4065,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C97" t="s">
         <v>510</v>
@@ -4087,7 +4087,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
         <v>511</v>
@@ -4109,7 +4109,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s">
         <v>512</v>
@@ -4131,7 +4131,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C100" t="s">
         <v>513</v>
@@ -4153,7 +4153,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C101" t="s">
         <v>514</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="566">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1213 +44,1213 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤモンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズクオーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤモンド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rose quartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズクオーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lovely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愛らしい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.108</t>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
         <v>420</v>
@@ -1969,7 +1969,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
         <v>422</v>
@@ -1991,7 +1991,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
         <v>423</v>
@@ -2091,7 +2091,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
         <v>427</v>
@@ -2529,7 +2529,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
         <v>444</v>
@@ -2577,7 +2577,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C33" t="s">
         <v>446</v>
@@ -2599,7 +2599,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
         <v>447</v>
@@ -2621,7 +2621,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
         <v>448</v>
@@ -2643,7 +2643,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
         <v>449</v>
@@ -2665,7 +2665,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C37" t="s">
         <v>450</v>
@@ -2687,7 +2687,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C38" t="s">
         <v>451</v>
@@ -2709,7 +2709,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
         <v>452</v>
@@ -2731,7 +2731,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
         <v>453</v>
@@ -2753,7 +2753,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C41" t="s">
         <v>454</v>
@@ -2827,7 +2827,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C44" t="s">
         <v>457</v>
@@ -2901,7 +2901,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C47" t="s">
         <v>460</v>
@@ -2923,7 +2923,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C48" t="s">
         <v>461</v>
@@ -2945,7 +2945,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C49" t="s">
         <v>462</v>
@@ -2967,7 +2967,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
         <v>463</v>
@@ -2989,7 +2989,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
         <v>464</v>
@@ -3011,7 +3011,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
         <v>465</v>
@@ -3033,7 +3033,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
         <v>466</v>
@@ -3055,7 +3055,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
         <v>467</v>
@@ -3077,7 +3077,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
         <v>468</v>
@@ -3099,7 +3099,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C56" t="s">
         <v>469</v>
@@ -3121,7 +3121,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
         <v>470</v>
@@ -3169,7 +3169,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C59" t="s">
         <v>472</v>
@@ -3191,7 +3191,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C60" t="s">
         <v>473</v>
@@ -3213,7 +3213,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
         <v>474</v>
@@ -3235,7 +3235,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
         <v>475</v>
@@ -3257,7 +3257,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C63" t="s">
         <v>476</v>
@@ -3279,7 +3279,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C64" t="s">
         <v>477</v>
@@ -3327,7 +3327,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C66" t="s">
         <v>479</v>
@@ -3349,7 +3349,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C67" t="s">
         <v>480</v>
@@ -3371,7 +3371,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
         <v>481</v>
@@ -3393,7 +3393,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s">
         <v>482</v>
@@ -3415,7 +3415,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C70" t="s">
         <v>483</v>
@@ -3723,7 +3723,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C82" t="s">
         <v>495</v>
@@ -3797,7 +3797,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C85" t="s">
         <v>498</v>
@@ -3819,7 +3819,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
         <v>499</v>
@@ -3841,7 +3841,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
         <v>500</v>
@@ -3863,7 +3863,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
         <v>501</v>
@@ -3885,7 +3885,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C89" t="s">
         <v>502</v>
@@ -3907,7 +3907,7 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
         <v>503</v>
@@ -3929,7 +3929,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
         <v>504</v>
@@ -3951,7 +3951,7 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
         <v>505</v>
@@ -3973,7 +3973,7 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
         <v>506</v>
@@ -4021,7 +4021,7 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
         <v>508</v>
@@ -4043,7 +4043,7 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C96" t="s">
         <v>509</v>
@@ -4065,7 +4065,7 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C97" t="s">
         <v>510</v>
@@ -4087,7 +4087,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
         <v>511</v>
@@ -4109,7 +4109,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s">
         <v>512</v>
@@ -4131,7 +4131,7 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C100" t="s">
         <v>513</v>
@@ -4153,7 +4153,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="C101" t="s">
         <v>514</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="569">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -1242,6 +1242,15 @@
   </si>
   <si>
     <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生クリーム</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1824,10 +1833,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1843,10 +1852,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1855,7 +1864,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1869,10 +1878,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1881,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1895,10 +1904,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1907,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1921,10 +1930,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1933,7 +1942,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1943,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1955,7 +1964,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1969,10 +1978,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1981,7 +1990,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1991,10 +2000,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -2003,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -2013,10 +2022,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -2025,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -2039,10 +2048,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2051,7 +2060,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2065,10 +2074,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2077,7 +2086,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2091,10 +2100,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2103,7 +2112,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2113,10 +2122,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -2125,7 +2134,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2139,10 +2148,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2151,7 +2160,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2165,10 +2174,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2177,7 +2186,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2191,10 +2200,10 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2203,7 +2212,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2217,10 +2226,10 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2229,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2243,10 +2252,10 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C20" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2255,7 +2264,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2269,10 +2278,10 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2281,7 +2290,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2295,10 +2304,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2307,7 +2316,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2321,10 +2330,10 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2333,7 +2342,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2347,10 +2356,10 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -2359,7 +2368,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2373,10 +2382,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2385,7 +2394,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2399,10 +2408,10 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2411,7 +2420,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2425,10 +2434,10 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2437,7 +2446,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2451,10 +2460,10 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C28" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2463,7 +2472,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2477,10 +2486,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2489,7 +2498,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2503,10 +2512,10 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C30" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2515,7 +2524,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2529,10 +2538,10 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C31" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2541,7 +2550,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2551,10 +2560,10 @@
         <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2563,7 +2572,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2577,10 +2586,10 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C33" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2589,7 +2598,7 @@
         <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2599,10 +2608,10 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2611,7 +2620,7 @@
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2621,10 +2630,10 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C35" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2633,7 +2642,7 @@
         <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2643,10 +2652,10 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C36" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2655,7 +2664,7 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2665,10 +2674,10 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C37" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -2677,7 +2686,7 @@
         <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2687,10 +2696,10 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2699,7 +2708,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2709,10 +2718,10 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2721,7 +2730,7 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2731,10 +2740,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2743,7 +2752,7 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2753,10 +2762,10 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C41" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2765,7 +2774,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2775,10 +2784,10 @@
         <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -2787,7 +2796,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2801,10 +2810,10 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
@@ -2813,7 +2822,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2827,10 +2836,10 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C44" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2839,7 +2848,7 @@
         <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2849,10 +2858,10 @@
         <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C45" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2861,7 +2870,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2875,10 +2884,10 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C46" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2887,7 +2896,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2901,10 +2910,10 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C47" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2913,7 +2922,7 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -2923,10 +2932,10 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C48" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D48" t="s">
         <v>201</v>
@@ -2935,7 +2944,7 @@
         <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2945,10 +2954,10 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2957,7 +2966,7 @@
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2967,10 +2976,10 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2979,7 +2988,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -2989,10 +2998,10 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C51" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -3001,7 +3010,7 @@
         <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -3011,10 +3020,10 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C52" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -3023,7 +3032,7 @@
         <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -3033,10 +3042,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C53" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3045,7 +3054,7 @@
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3055,10 +3064,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C54" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3067,7 +3076,7 @@
         <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3077,10 +3086,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C55" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3089,7 +3098,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3099,10 +3108,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3111,7 +3120,7 @@
         <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3121,10 +3130,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C57" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3133,7 +3142,7 @@
         <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3143,10 +3152,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3155,7 +3164,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3169,10 +3178,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C59" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3181,7 +3190,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3191,10 +3200,10 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3203,7 +3212,7 @@
         <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3213,10 +3222,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C61" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3225,7 +3234,7 @@
         <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3235,10 +3244,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3247,7 +3256,7 @@
         <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3257,10 +3266,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C63" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3269,7 +3278,7 @@
         <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3279,10 +3288,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C64" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3291,7 +3300,7 @@
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3301,10 +3310,10 @@
         <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3313,7 +3322,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3327,10 +3336,10 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C66" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3339,7 +3348,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3349,10 +3358,10 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C67" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3361,7 +3370,7 @@
         <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -3371,10 +3380,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C68" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3383,7 +3392,7 @@
         <v>266</v>
       </c>
       <c r="F68" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -3393,10 +3402,10 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C69" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -3405,7 +3414,7 @@
         <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3415,10 +3424,10 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C70" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D70" t="s">
         <v>271</v>
@@ -3427,7 +3436,7 @@
         <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3437,10 +3446,10 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C71" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3449,7 +3458,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3463,10 +3472,10 @@
         <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C72" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3475,7 +3484,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3489,10 +3498,10 @@
         <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C73" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3501,7 +3510,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3515,10 +3524,10 @@
         <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3527,7 +3536,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3541,10 +3550,10 @@
         <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3553,7 +3562,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3567,10 +3576,10 @@
         <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3579,7 +3588,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3593,10 +3602,10 @@
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C77" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3605,7 +3614,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3619,10 +3628,10 @@
         <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C78" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3631,7 +3640,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3645,10 +3654,10 @@
         <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C79" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3657,7 +3666,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3671,10 +3680,10 @@
         <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C80" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3683,7 +3692,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3697,10 +3706,10 @@
         <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C81" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3709,7 +3718,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3723,10 +3732,10 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C82" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3735,7 +3744,7 @@
         <v>330</v>
       </c>
       <c r="F82" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3745,10 +3754,10 @@
         <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C83" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3757,7 +3766,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3771,10 +3780,10 @@
         <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C84" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3783,7 +3792,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3797,10 +3806,10 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C85" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D85" t="s">
         <v>342</v>
@@ -3809,7 +3818,7 @@
         <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3819,10 +3828,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C86" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3831,7 +3840,7 @@
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3841,10 +3850,10 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C87" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3853,7 +3862,7 @@
         <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3863,10 +3872,10 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C88" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3875,7 +3884,7 @@
         <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3885,10 +3894,10 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C89" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D89" t="s">
         <v>242</v>
@@ -3897,7 +3906,7 @@
         <v>354</v>
       </c>
       <c r="F89" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3907,10 +3916,10 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C90" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3919,7 +3928,7 @@
         <v>357</v>
       </c>
       <c r="F90" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3929,10 +3938,10 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C91" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D91" t="s">
         <v>359</v>
@@ -3941,7 +3950,7 @@
         <v>360</v>
       </c>
       <c r="F91" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3951,10 +3960,10 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C92" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -3963,7 +3972,7 @@
         <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3973,10 +3982,10 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C93" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -3985,7 +3994,7 @@
         <v>366</v>
       </c>
       <c r="F93" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3995,10 +4004,10 @@
         <v>367</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -4007,7 +4016,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -4021,10 +4030,10 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C95" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -4033,7 +4042,7 @@
         <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -4043,10 +4052,10 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C96" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -4055,7 +4064,7 @@
         <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4065,10 +4074,10 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -4077,7 +4086,7 @@
         <v>380</v>
       </c>
       <c r="F97" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4087,10 +4096,10 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D98" t="s">
         <v>382</v>
@@ -4099,7 +4108,7 @@
         <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4109,10 +4118,10 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C99" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -4121,7 +4130,7 @@
         <v>386</v>
       </c>
       <c r="F99" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4131,10 +4140,10 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C100" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -4143,7 +4152,7 @@
         <v>389</v>
       </c>
       <c r="F100" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4153,10 +4162,10 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C101" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D101" t="s">
         <v>391</v>
@@ -4165,7 +4174,7 @@
         <v>392</v>
       </c>
       <c r="F101" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4175,10 +4184,10 @@
         <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -4187,7 +4196,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>
@@ -4201,10 +4210,10 @@
         <v>398</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C103" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D103" t="s">
         <v>399</v>
@@ -4220,10 +4229,10 @@
         <v>401</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C104" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D104" t="s">
         <v>402</v>
@@ -4239,10 +4248,10 @@
         <v>404</v>
       </c>
       <c r="B105" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C105" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D105" t="s">
         <v>405</v>
@@ -4251,7 +4260,7 @@
         <v>406</v>
       </c>
       <c r="F105" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G105" t="s">
         <v>407</v>
@@ -4259,6 +4268,22 @@
       <c r="H105" t="s">
         <v>408</v>
       </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>410</v>
+      </c>
+      <c r="E106" t="s">
+        <v>411</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="572">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,1225 +44,1225 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダークマター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest,wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森から生まれし,木の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉄塊と呼ばれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グラナイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid,stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩をも砕く,石の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深い草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供のおもちゃの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゼリー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trembling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プルプルする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生もの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アカシア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄金に輝く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreadbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を砕く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雷を帯し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青銅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気高き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミカ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儚き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クロム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真実を暴く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイヤモンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever lasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろいなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubynus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルビナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crimson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤く染まった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由緒ある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珊瑚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珪砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glittering,glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さざめく,ガラスの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luminescent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">異光を放つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">革</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysterious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てを包む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を統べし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇を照らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エメラルド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇跡を呼ぶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コバルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamantite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アダマンタイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthshaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地を揺るがす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapphire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サファイア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トパーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquamarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクアマリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オパール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翡翠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オニキス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapis lazuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラピス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ターコイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不死なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふざけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limestone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ライムストーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大理石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バサルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダイオライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godbane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神殺しの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phyllite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot spring water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明るい土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄色い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南の島の水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">強靭なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherryblossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">processed food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加工物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ポプラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amethyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アメジスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewitching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖艶なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feywood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フェイウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coralwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーラルウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズクオーツ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愛らしい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生クリーム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダークマター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest,wooden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森から生まれし,木の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鉄塊と呼ばれる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">granite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グラナイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rigid,stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">岩をも砕く,石の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">練習用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深い草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供のおもちゃの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゼリー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trembling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プルプルする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生もの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">食用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acacia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカシア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄金に輝く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dreadbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を砕く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷を帯し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青銅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気高き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミカ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儚き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クロム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真実を暴く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイヤモンド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever lasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろいなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubynus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルビナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crimson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤く染まった</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">由緒ある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珊瑚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">珪砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glittering,glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さざめく,ガラスの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水晶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luminescent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">異光を放つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">革</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysterious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てを包む</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を統べし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真珠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇を照らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エメラルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇跡を呼ぶ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コバルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adamantite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アダマンタイト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthshaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地を揺るがす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sapphire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サファイア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トパーズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquamarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクアマリン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オパール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翡翠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オニキス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lapis lazuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ラピス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ターコイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meteorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メテオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brilliant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不死なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">樺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふざけた</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forest soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライムストーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大理石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バサルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダイオライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">godbane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神殺しの</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phyllite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot spring water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pale soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明るい土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄色い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tropical water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南の島の水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">強靭なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherryblossom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">processed food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加工物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poplar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポプラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sea sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamboo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amethyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アメジスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bewitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖艶なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フェイウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coralwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コーラルウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rose quartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズクオーツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lovely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愛らしい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生クリーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.108</t>
@@ -1939,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
         <v>425</v>
@@ -1987,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>427</v>
@@ -2009,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
         <v>428</v>
@@ -2109,7 +2109,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
         <v>432</v>
@@ -2547,7 +2547,7 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C31" t="s">
         <v>449</v>
@@ -2595,7 +2595,7 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C33" t="s">
         <v>451</v>
@@ -2617,7 +2617,7 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C34" t="s">
         <v>452</v>
@@ -2639,7 +2639,7 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C35" t="s">
         <v>453</v>
@@ -2661,7 +2661,7 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
         <v>454</v>
@@ -2683,7 +2683,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C37" t="s">
         <v>455</v>
@@ -2705,7 +2705,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C38" t="s">
         <v>456</v>
@@ -2727,7 +2727,7 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
         <v>457</v>
@@ -2749,7 +2749,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
         <v>458</v>
@@ -2771,7 +2771,7 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
         <v>459</v>
@@ -2845,7 +2845,7 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
         <v>462</v>
@@ -2919,7 +2919,7 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
         <v>465</v>
@@ -2941,7 +2941,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C48" t="s">
         <v>466</v>
@@ -2963,7 +2963,7 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
         <v>467</v>
@@ -2985,7 +2985,7 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C50" t="s">
         <v>468</v>
@@ -3007,7 +3007,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
         <v>469</v>
@@ -3029,7 +3029,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
         <v>470</v>
@@ -3051,7 +3051,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C53" t="s">
         <v>471</v>
@@ -3073,7 +3073,7 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C54" t="s">
         <v>472</v>
@@ -3095,7 +3095,7 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C55" t="s">
         <v>473</v>
@@ -3117,7 +3117,7 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
         <v>474</v>
@@ -3139,7 +3139,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C57" t="s">
         <v>475</v>
@@ -3187,7 +3187,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
         <v>477</v>
@@ -3209,7 +3209,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C60" t="s">
         <v>478</v>
@@ -3231,7 +3231,7 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C61" t="s">
         <v>479</v>
@@ -3253,7 +3253,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s">
         <v>480</v>
@@ -3275,7 +3275,7 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s">
         <v>481</v>
@@ -3297,7 +3297,7 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
         <v>482</v>
@@ -3345,7 +3345,7 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C66" t="s">
         <v>484</v>
@@ -3367,7 +3367,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
         <v>485</v>
@@ -3389,7 +3389,7 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C68" t="s">
         <v>486</v>
@@ -3411,7 +3411,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C69" t="s">
         <v>487</v>
@@ -3433,7 +3433,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C70" t="s">
         <v>488</v>
@@ -3741,7 +3741,7 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C82" t="s">
         <v>500</v>
@@ -3815,7 +3815,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C85" t="s">
         <v>503</v>
@@ -3837,7 +3837,7 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C86" t="s">
         <v>504</v>
@@ -3859,7 +3859,7 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
         <v>505</v>
@@ -3881,7 +3881,7 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C88" t="s">
         <v>506</v>
@@ -3903,7 +3903,7 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C89" t="s">
         <v>507</v>
@@ -3925,7 +3925,7 @@
         <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C90" t="s">
         <v>508</v>
@@ -3947,7 +3947,7 @@
         <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C91" t="s">
         <v>509</v>
@@ -3969,7 +3969,7 @@
         <v>362</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C92" t="s">
         <v>510</v>
@@ -3991,7 +3991,7 @@
         <v>365</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C93" t="s">
         <v>511</v>
@@ -4039,7 +4039,7 @@
         <v>373</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C95" t="s">
         <v>513</v>
@@ -4061,7 +4061,7 @@
         <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s">
         <v>514</v>
@@ -4083,7 +4083,7 @@
         <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C97" t="s">
         <v>515</v>
@@ -4105,7 +4105,7 @@
         <v>382</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
         <v>516</v>
@@ -4127,7 +4127,7 @@
         <v>385</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C99" t="s">
         <v>517</v>
@@ -4149,7 +4149,7 @@
         <v>388</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
         <v>518</v>
@@ -4171,7 +4171,7 @@
         <v>391</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
         <v>519</v>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">水晶</t>
   </si>
   <si>
-    <t xml:space="preserve">luminescent </t>
+    <t xml:space="preserve">luminescent</t>
   </si>
   <si>
     <t xml:space="preserve">異光を放つ</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">霊布</t>
   </si>
   <si>
-    <t xml:space="preserve">otherworldly </t>
+    <t xml:space="preserve">otherworldly</t>
   </si>
   <si>
     <t xml:space="preserve">この世ならざる</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Mod_Korean/Lang/KR/Game/Material.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="575">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -1254,6 +1254,15 @@
   </si>
   <si>
     <t xml:space="preserve">生クリーム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">琥珀</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1842,10 +1851,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1861,10 +1870,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1873,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1887,10 +1896,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1899,7 +1908,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1913,10 +1922,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1925,7 +1934,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1939,10 +1948,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1951,7 +1960,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1961,10 +1970,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1973,7 +1982,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1987,10 +1996,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1999,7 +2008,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -2009,10 +2018,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -2021,7 +2030,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -2031,10 +2040,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -2043,7 +2052,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -2057,10 +2066,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2069,7 +2078,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2083,10 +2092,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2095,7 +2104,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2109,10 +2118,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2121,7 +2130,7 @@
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -2131,10 +2140,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -2143,7 +2152,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2157,10 +2166,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2169,7 +2178,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2183,10 +2192,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2195,7 +2204,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2209,10 +2218,10 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2221,7 +2230,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2235,10 +2244,10 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2247,7 +2256,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2261,10 +2270,10 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2273,7 +2282,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2287,10 +2296,10 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2299,7 +2308,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2313,10 +2322,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C22" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2325,7 +2334,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2339,10 +2348,10 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2351,7 +2360,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2365,10 +2374,10 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D24" t="s">
         <v>105</v>
@@ -2377,7 +2386,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2391,10 +2400,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2403,7 +2412,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2417,10 +2426,10 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2429,7 +2438,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2443,10 +2452,10 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2455,7 +2464,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2469,10 +2478,10 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2481,7 +2490,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2495,10 +2504,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2507,7 +2516,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2521,10 +2530,10 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2533,7 +2542,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2547,10 +2556,10 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C31" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2559,7 +2568,7 @@
         <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2569,10 +2578,10 @@
         <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C32" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2581,7 +2590,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2595,10 +2604,10 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2607,7 +2616,7 @@
         <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2617,10 +2626,10 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2629,7 +2638,7 @@
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2639,10 +2648,10 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C35" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2651,7 +2660,7 @@
         <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2661,10 +2670,10 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2673,7 +2682,7 @@
         <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2683,10 +2692,10 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -2695,7 +2704,7 @@
         <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -2705,10 +2714,10 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C38" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2717,7 +2726,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2727,10 +2736,10 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C39" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2739,7 +2748,7 @@
         <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2749,10 +2758,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C40" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2761,7 +2770,7 @@
         <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2771,10 +2780,10 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C41" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2783,7 +2792,7 @@
         <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2793,10 +2802,10 @@
         <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C42" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
@@ -2805,7 +2814,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2819,10 +2828,10 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C43" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D43" t="s">
         <v>180</v>
@@ -2831,7 +2840,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2845,10 +2854,10 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C44" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2857,7 +2866,7 @@
         <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2867,10 +2876,10 @@
         <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2879,7 +2888,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2893,10 +2902,10 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2905,7 +2914,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2919,10 +2928,10 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C47" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2931,7 +2940,7 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -2941,10 +2950,10 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D48" t="s">
         <v>201</v>
@@ -2953,7 +2962,7 @@
         <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2963,10 +2972,10 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C49" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2975,7 +2984,7 @@
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2985,10 +2994,10 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2997,7 +3006,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -3007,10 +3016,10 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C51" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
@@ -3019,7 +3028,7 @@
         <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -3029,10 +3038,10 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C52" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -3041,7 +3050,7 @@
         <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -3051,10 +3060,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C53" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3063,7 +3072,7 @@
         <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -3073,10 +3082,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C54" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3085,7 +3094,7 @@
         <v>220</v>
       </c>
       <c r="F54" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -3095,10 +3104,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3107,7 +3116,7 @@
         <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -3117,10 +3126,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3129,7 +3138,7 @@
         <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3139,10 +3148,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C57" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3151,7 +3160,7 @@
         <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3161,10 +3170,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C58" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3173,7 +3182,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3187,10 +3196,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3199,7 +3208,7 @@
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3209,10 +3218,10 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C60" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3221,7 +3230,7 @@
         <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3231,10 +3240,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C61" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3243,7 +3252,7 @@
         <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -3253,10 +3262,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3265,7 +3274,7 @@
         <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -3275,10 +3284,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C63" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3287,7 +3296,7 @@
         <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3297,10 +3306,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C64" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3309,7 +3318,7 @@
         <v>252</v>
       </c>
       <c r="F64" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3319,10 +3328,10 @@
         <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C65" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3331,7 +3340,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3345,10 +3354,10 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C66" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3357,7 +3366,7 @@
         <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3367,10 +3376,10 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C67" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3379,7 +3388,7 @@
         <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -3389,10 +3398,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C68" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3401,7 +3410,7 @@
         <v>266</v>
       </c>
       <c r="F68" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -3411,10 +3420,10 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C69" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -3423,7 +3432,7 @@
         <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3433,10 +3442,10 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C70" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D70" t="s">
         <v>271</v>
@@ -3445,7 +3454,7 @@
         <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -3455,10 +3464,10 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C71" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3467,7 +3476,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3481,10 +3490,10 @@
         <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C72" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3493,7 +3502,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3507,10 +3516,10 @@
         <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3519,7 +3528,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3533,10 +3542,10 @@
         <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3545,7 +3554,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3559,10 +3568,10 @@
         <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C75" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3571,7 +3580,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3585,10 +3594,10 @@
         <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C76" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3597,7 +3606,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3611,10 +3620,10 @@
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3623,7 +3632,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3637,10 +3646,10 @@
         <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C78" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3649,7 +3658,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3663,10 +3672,10 @@
         <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3675,7 +3684,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3689,10 +3698,10 @@
         <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C80" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3701,7 +3710,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3715,10 +3724,10 @@
         <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C81" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3727,7 +3736,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3741,10 +3750,10 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C82" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3753,7 +3762,7 @@
         <v>330</v>
       </c>
       <c r="F82" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3763,10 +3772,10 @@
         <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3775,7 +3784,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3789,10 +3798,10 @@
         <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3801,7 +3810,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3815,10 +3824,10 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C85" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D85" t="s">
         <v>342</v>
@@ -3827,7 +3836,7 @@
         <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3837,10 +3846,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C86" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3849,7 +3858,7 @@
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3859,10 +3868,10 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3871,7 +3880,7 @@
         <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3881,10 +3890,10 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C88" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3893,7 +3902,7 @@
         <v>352</v>
       </c>
       <c r="F88" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3903,10 +3912,10 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C89" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D89" t="s">
         <v>354</v>
@@ -3915,7 +3924,7 @@
         <v>355</v>
       </c>
       <c r="F89" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3925,10 +3934,10 @@
         <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C90" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D90" t="s">
         <v>357</v>
@@ -3937,7 +3946,7 @@
         <v>358</v>
       </c>
       <c r="F90" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3947,10 +3956,10 @@
         <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D91" t="s">
         <v>360</v>
@@ -3959,7 +3968,7 @@
         <v>361</v>
       </c>
       <c r="F91" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3969,10 +3978,10 @@
         <v>362</v>
       </c>
       <c r="B92" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C92" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D92" t="s">
         <v>363</v>
@@ -3981,7 +3990,7 @@
         <v>364</v>
       </c>
       <c r="F92" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3991,10 +4000,10 @@
         <v>365</v>
       </c>
       <c r="B93" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C93" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D93" t="s">
         <v>366</v>
@@ -4003,7 +4012,7 @@
         <v>367</v>
       </c>
       <c r="F93" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -4013,10 +4022,10 @@
         <v>368</v>
       </c>
       <c r="B94" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D94" t="s">
         <v>369</v>
@@ -4025,7 +4034,7 @@
         <v>370</v>
       </c>
       <c r="F94" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G94" t="s">
         <v>371</v>
@@ -4039,10 +4048,10 @@
         <v>373</v>
       </c>
       <c r="B95" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C95" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D95" t="s">
         <v>374</v>
@@ -4051,7 +4060,7 @@
         <v>375</v>
       </c>
       <c r="F95" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -4061,10 +4070,10 @@
         <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C96" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D96" t="s">
         <v>377</v>
@@ -4073,7 +4082,7 @@
         <v>378</v>
       </c>
       <c r="F96" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4083,10 +4092,10 @@
         <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C97" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D97" t="s">
         <v>380</v>
@@ -4095,7 +4104,7 @@
         <v>381</v>
       </c>
       <c r="F97" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4105,10 +4114,10 @@
         <v>382</v>
       </c>
       <c r="B98" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C98" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D98" t="s">
         <v>383</v>
@@ -4117,7 +4126,7 @@
         <v>384</v>
       </c>
       <c r="F98" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4127,10 +4136,10 @@
         <v>385</v>
       </c>
       <c r="B99" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C99" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D99" t="s">
         <v>386</v>
@@ -4139,7 +4148,7 @@
         <v>387</v>
       </c>
       <c r="F99" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4149,10 +4158,10 @@
         <v>388</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C100" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D100" t="s">
         <v>389</v>
@@ -4161,7 +4170,7 @@
         <v>390</v>
       </c>
       <c r="F100" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
@@ -4171,10 +4180,10 @@
         <v>391</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C101" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D101" t="s">
         <v>392</v>
@@ -4183,7 +4192,7 @@
         <v>393</v>
       </c>
       <c r="F101" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -4193,10 +4202,10 @@
         <v>394</v>
       </c>
       <c r="B102" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C102" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D102" t="s">
         <v>395</v>
@@ -4205,7 +4214,7 @@
         <v>396</v>
       </c>
       <c r="F102" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G102" t="s">
         <v>397</v>
@@ -4219,10 +4228,10 @@
         <v>399</v>
       </c>
       <c r="B103" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C103" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D103" t="s">
         <v>400</v>
@@ -4238,10 +4247,10 @@
         <v>402</v>
       </c>
       <c r="B104" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C104" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D104" t="s">
         <v>403</v>
@@ -4257,10 +4266,10 @@
         <v>405</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C105" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D105" t="s">
         <v>406</v>
@@ -4269,7 +4278,7 @@
         <v>407</v>
       </c>
       <c r="F105" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G105" t="s">
         <v>408</v>
@@ -4283,10 +4292,10 @@
         <v>410</v>
       </c>
       <c r="B106" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C106" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D106" t="s">
         <v>411</v>
@@ -4296,6 +4305,22 @@
       </c>
       <c r="G106"/>
       <c r="H106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>414</v>
+      </c>
+      <c r="E107" t="s">
+        <v>415</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
